--- a/template/班别_姓名.xlsx
+++ b/template/班别_姓名.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15000"/>
+    <workbookView windowHeight="15020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -672,7 +672,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -704,18 +704,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1036,10 +1024,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -1086,327 +1074,45 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
+    <row r="4" s="2" customFormat="1" ht="30" customHeight="1" spans="2:4">
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
+    <row r="5" s="2" customFormat="1" ht="30" customHeight="1" spans="2:4">
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
+    <row r="6" s="2" customFormat="1" ht="30" customHeight="1" spans="2:4">
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
+    <row r="7" s="2" customFormat="1" ht="30" customHeight="1" spans="2:4">
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
+    <row r="8" s="2" customFormat="1" ht="30" customHeight="1" spans="2:4">
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
+    <row r="9" s="2" customFormat="1" ht="30" customHeight="1" spans="2:4">
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
+    <row r="10" s="2" customFormat="1" ht="30" customHeight="1" spans="2:4">
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="15"/>
+    <row r="11" s="2" customFormat="1" ht="30" customHeight="1" spans="2:4">
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A25" s="12"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A28" s="12"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A29" s="12"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A30" s="12"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A31" s="12"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A35" s="12"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A36" s="12"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A37" s="12"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A39" s="12"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A40" s="12"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A41" s="12"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A42" s="12"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A43" s="12"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A44" s="12"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A45" s="12"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A46" s="12"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="4"/>
-    </row>
-    <row r="47" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A47" s="12"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A48" s="12"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="4"/>
-    </row>
-    <row r="49" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A49" s="12"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="4"/>
-    </row>
-    <row r="50" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A50" s="12"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="4"/>
-    </row>
-    <row r="51" s="2" customFormat="1" ht="30" customHeight="1" spans="2:4">
-      <c r="B51" s="3"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-    </row>
-    <row r="52" s="2" customFormat="1" ht="30" customHeight="1" spans="2:4">
-      <c r="B52" s="3"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-    </row>
-    <row r="53" s="2" customFormat="1" ht="30" customHeight="1" spans="2:4">
-      <c r="B53" s="3"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-    </row>
-    <row r="54" s="2" customFormat="1" ht="30" customHeight="1" spans="2:4">
-      <c r="B54" s="3"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-    </row>
-    <row r="55" s="2" customFormat="1" ht="30" customHeight="1" spans="2:4">
-      <c r="B55" s="3"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-    </row>
-    <row r="56" s="2" customFormat="1" ht="30" customHeight="1" spans="2:4">
-      <c r="B56" s="3"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-    </row>
-    <row r="57" s="2" customFormat="1" ht="30" customHeight="1" spans="2:4">
-      <c r="B57" s="3"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-    </row>
-    <row r="58" s="2" customFormat="1" ht="30" customHeight="1" spans="2:4">
-      <c r="B58" s="3"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
